--- a/kawasaki_environment.xlsx
+++ b/kawasaki_environment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hidakashinichirou/Documents/GitHub/tokyo-bay-fishing-ai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyys1\Desktop\python\tokyo-bay-fishing-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEA64D2-806D-654A-B227-2708FAF6D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47D5EF-2F21-45FA-8269-5B89D86181A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="500" windowWidth="23200" windowHeight="15480" xr2:uid="{8A8BF34B-C17F-4447-8DF1-09B4DC515530}"/>
+    <workbookView xWindow="16245" yWindow="0" windowWidth="12510" windowHeight="15480" xr2:uid="{8A8BF34B-C17F-4447-8DF1-09B4DC515530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1089,23 +1089,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EB73D9-6FD9-4659-98BF-8B3368AC1478}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1122,395 +1122,276 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>46024</v>
+        <v>46026</v>
       </c>
       <c r="B2">
-        <v>12.19</v>
+        <v>11.17</v>
       </c>
       <c r="C2">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="D2">
-        <v>10.65</v>
+        <v>11.18</v>
       </c>
       <c r="E2">
-        <v>30.79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>46024.041666666664</v>
+        <v>46026.041666666664</v>
       </c>
       <c r="B3">
-        <v>12.4</v>
+        <v>11.12</v>
       </c>
       <c r="C3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="D3">
-        <v>10.76</v>
+        <v>11.29</v>
       </c>
       <c r="E3">
-        <v>31.63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>46024.083333333336</v>
+        <v>46026.083333333336</v>
       </c>
       <c r="B4">
-        <v>12.52</v>
+        <v>11.16</v>
       </c>
       <c r="C4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D4">
-        <v>11.33</v>
+        <v>11.38</v>
       </c>
       <c r="E4">
-        <v>32.229999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>46024.125</v>
+        <v>46026.125</v>
       </c>
       <c r="B5">
-        <v>12.5</v>
+        <v>11.36</v>
       </c>
       <c r="C5">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D5">
-        <v>11.31</v>
+        <v>11.61</v>
       </c>
       <c r="E5">
-        <v>32.26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>31.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>46024.166666666664</v>
+        <v>46026.166666666664</v>
       </c>
       <c r="B6">
-        <v>12.3</v>
+        <v>11.76</v>
       </c>
       <c r="C6">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>10.98</v>
+        <v>11.45</v>
       </c>
       <c r="E6">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>46024.208333333336</v>
+        <v>46026.333333333336</v>
       </c>
       <c r="B7">
-        <v>12.33</v>
+        <v>11.76</v>
       </c>
       <c r="C7">
         <v>2.2999999999999998</v>
       </c>
       <c r="D7">
-        <v>10.83</v>
+        <v>11.29</v>
       </c>
       <c r="E7">
-        <v>31.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>31.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>46024.25</v>
+        <v>46026.375</v>
       </c>
       <c r="B8">
-        <v>12.32</v>
+        <v>11.93</v>
       </c>
       <c r="C8">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D8">
-        <v>10.81</v>
+        <v>11.02</v>
       </c>
       <c r="E8">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>46024.291666666664</v>
+        <v>46026.416666666664</v>
       </c>
       <c r="B9">
-        <v>12.17</v>
+        <v>11.93</v>
       </c>
       <c r="C9">
         <v>2.2000000000000002</v>
       </c>
       <c r="D9">
-        <v>10.77</v>
+        <v>11.12</v>
       </c>
       <c r="E9">
-        <v>31.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>46024.333333333336</v>
+        <v>46026.458333333336</v>
       </c>
       <c r="B10">
-        <v>12.28</v>
+        <v>11.83</v>
       </c>
       <c r="C10">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="D10">
-        <v>10.87</v>
+        <v>11.82</v>
       </c>
       <c r="E10">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>31.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>46024.375</v>
+        <v>46026.5</v>
       </c>
       <c r="B11">
-        <v>12.25</v>
+        <v>11.92</v>
       </c>
       <c r="C11">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
-        <v>11.22</v>
+        <v>11.73</v>
       </c>
       <c r="E11">
-        <v>31.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>31.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>46024.416666666664</v>
+        <v>46026.541666666664</v>
       </c>
       <c r="B12">
-        <v>12.28</v>
+        <v>12.14</v>
       </c>
       <c r="C12">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D12">
-        <v>11.3</v>
+        <v>11.51</v>
       </c>
       <c r="E12">
-        <v>31.98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>31.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>46024.458333333336</v>
+        <v>46026.583333333336</v>
       </c>
       <c r="B13">
-        <v>12.29</v>
+        <v>12.01</v>
       </c>
       <c r="C13">
+        <v>2.4</v>
+      </c>
+      <c r="D13">
+        <v>11.65</v>
+      </c>
+      <c r="E13">
+        <v>31.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>46026.625</v>
+      </c>
+      <c r="B14">
+        <v>12.02</v>
+      </c>
+      <c r="C14">
+        <v>2.4</v>
+      </c>
+      <c r="D14">
+        <v>11.88</v>
+      </c>
+      <c r="E14">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>46026.666666666664</v>
+      </c>
+      <c r="B15">
+        <v>12.06</v>
+      </c>
+      <c r="C15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D13">
-        <v>11.68</v>
-      </c>
-      <c r="E13">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>46024.5</v>
-      </c>
-      <c r="B14">
-        <v>12.37</v>
-      </c>
-      <c r="C14">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D14">
-        <v>11.58</v>
-      </c>
-      <c r="E14">
-        <v>31.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>46024.541666666664</v>
-      </c>
-      <c r="B15">
-        <v>12.38</v>
-      </c>
-      <c r="C15">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="D15">
-        <v>11.76</v>
+        <v>11.74</v>
       </c>
       <c r="E15">
-        <v>31.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>31.82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>46024.583333333336</v>
+        <v>46026.708333333336</v>
       </c>
       <c r="B16">
-        <v>12.39</v>
+        <v>12.05</v>
       </c>
       <c r="C16">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D16">
-        <v>11.69</v>
+        <v>12.32</v>
       </c>
       <c r="E16">
-        <v>31.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>46024.625</v>
+        <v>46026.75</v>
       </c>
       <c r="B17">
-        <v>12.29</v>
+        <v>12.17</v>
       </c>
       <c r="C17">
         <v>2.2999999999999998</v>
       </c>
       <c r="D17">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>31.95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>46024.666666666664</v>
-      </c>
-      <c r="B18">
-        <v>12.28</v>
-      </c>
-      <c r="C18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D18">
-        <v>11.91</v>
-      </c>
-      <c r="E18">
-        <v>31.85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>46024.708333333336</v>
-      </c>
-      <c r="B19">
-        <v>12.25</v>
-      </c>
-      <c r="C19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D19">
-        <v>11.57</v>
-      </c>
-      <c r="E19">
-        <v>31.88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>46024.75</v>
-      </c>
-      <c r="B20">
-        <v>12.23</v>
-      </c>
-      <c r="C20">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D20">
-        <v>10.98</v>
-      </c>
-      <c r="E20">
-        <v>31.95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>46024.791666666664</v>
-      </c>
-      <c r="B21">
-        <v>12.39</v>
-      </c>
-      <c r="C21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D21">
-        <v>11.08</v>
-      </c>
-      <c r="E21">
-        <v>32.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>46024.833333333336</v>
-      </c>
-      <c r="B22">
-        <v>12.46</v>
-      </c>
-      <c r="C22">
-        <v>2.5</v>
-      </c>
-      <c r="D22">
-        <v>10.83</v>
-      </c>
-      <c r="E22">
-        <v>32.119999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>46024.875</v>
-      </c>
-      <c r="B23">
-        <v>12.57</v>
-      </c>
-      <c r="C23">
-        <v>2.4</v>
-      </c>
-      <c r="D23">
-        <v>10.72</v>
-      </c>
-      <c r="E23">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>46024.916666666664</v>
-      </c>
-      <c r="B24">
-        <v>12.7</v>
-      </c>
-      <c r="C24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D24">
-        <v>10.68</v>
-      </c>
-      <c r="E24">
-        <v>32.32</v>
+        <v>31.72</v>
       </c>
     </row>
   </sheetData>

--- a/kawasaki_environment.xlsx
+++ b/kawasaki_environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyys1\Desktop\python\tokyo-bay-fishing-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47D5EF-2F21-45FA-8269-5B89D86181A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2081DAE-7F2D-468A-A11D-796968CF759D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16245" yWindow="0" windowWidth="12510" windowHeight="15480" xr2:uid="{8A8BF34B-C17F-4447-8DF1-09B4DC515530}"/>
+    <workbookView xWindow="5115" yWindow="0" windowWidth="12510" windowHeight="15480" xr2:uid="{8A8BF34B-C17F-4447-8DF1-09B4DC515530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,70 +47,14 @@
     <t>濁度(上層)(NTU)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>水温</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>上層</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="1"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="18"/>
+    <t>水温(上層)(℃)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -250,32 +194,6 @@
       <sz val="6"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -704,14 +622,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EB73D9-6FD9-4659-98BF-8B3368AC1478}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1109,292 +1024,380 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>46026</v>
+        <v>46029</v>
       </c>
       <c r="B2">
-        <v>11.17</v>
+        <v>11.84</v>
       </c>
       <c r="C2">
-        <v>2.5</v>
+        <v>32.17</v>
       </c>
       <c r="D2">
-        <v>11.18</v>
+        <v>11.32</v>
       </c>
       <c r="E2">
-        <v>30.02</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>46026.041666666664</v>
+        <v>46029.041666666664</v>
       </c>
       <c r="B3">
-        <v>11.12</v>
+        <v>11.77</v>
       </c>
       <c r="C3">
+        <v>32.15</v>
+      </c>
+      <c r="D3">
+        <v>11.24</v>
+      </c>
+      <c r="E3">
         <v>2.4</v>
-      </c>
-      <c r="D3">
-        <v>11.29</v>
-      </c>
-      <c r="E3">
-        <v>30.55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>46026.083333333336</v>
+        <v>46029.083333333336</v>
       </c>
       <c r="B4">
-        <v>11.16</v>
+        <v>11.61</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>32.11</v>
       </c>
       <c r="D4">
-        <v>11.38</v>
+        <v>11.37</v>
       </c>
       <c r="E4">
-        <v>30.76</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>46026.125</v>
+        <v>46029.125</v>
       </c>
       <c r="B5">
-        <v>11.36</v>
+        <v>11.7</v>
       </c>
       <c r="C5">
+        <v>32.15</v>
+      </c>
+      <c r="D5">
+        <v>11.3</v>
+      </c>
+      <c r="E5">
         <v>2.4</v>
-      </c>
-      <c r="D5">
-        <v>11.61</v>
-      </c>
-      <c r="E5">
-        <v>31.37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>46026.166666666664</v>
+        <v>46029.25</v>
       </c>
       <c r="B6">
-        <v>11.76</v>
+        <v>12.05</v>
       </c>
       <c r="C6">
+        <v>32.28</v>
+      </c>
+      <c r="D6">
+        <v>11.58</v>
+      </c>
+      <c r="E6">
         <v>2.5</v>
-      </c>
-      <c r="D6">
-        <v>11.45</v>
-      </c>
-      <c r="E6">
-        <v>31.54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>46026.333333333336</v>
+        <v>46029.291666666664</v>
       </c>
       <c r="B7">
-        <v>11.76</v>
+        <v>12.07</v>
       </c>
       <c r="C7">
-        <v>2.2999999999999998</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D7">
-        <v>11.29</v>
+        <v>11.58</v>
       </c>
       <c r="E7">
-        <v>31.65</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>46026.375</v>
+        <v>46029.333333333336</v>
       </c>
       <c r="B8">
-        <v>11.93</v>
+        <v>12.18</v>
       </c>
       <c r="C8">
-        <v>2.2999999999999998</v>
+        <v>32.39</v>
       </c>
       <c r="D8">
-        <v>11.02</v>
+        <v>11.75</v>
       </c>
       <c r="E8">
-        <v>31.73</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>46026.416666666664</v>
+        <v>46029.375</v>
       </c>
       <c r="B9">
-        <v>11.93</v>
+        <v>12.14</v>
       </c>
       <c r="C9">
-        <v>2.2000000000000002</v>
+        <v>32.39</v>
       </c>
       <c r="D9">
-        <v>11.12</v>
+        <v>11.69</v>
       </c>
       <c r="E9">
-        <v>31.67</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>46026.458333333336</v>
+        <v>46029.458333333336</v>
       </c>
       <c r="B10">
-        <v>11.83</v>
+        <v>12.01</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>32.21</v>
       </c>
       <c r="D10">
-        <v>11.82</v>
+        <v>11.64</v>
       </c>
       <c r="E10">
-        <v>31.55</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>46026.5</v>
+        <v>46029.5</v>
       </c>
       <c r="B11">
-        <v>11.92</v>
+        <v>12.05</v>
       </c>
       <c r="C11">
+        <v>32.22</v>
+      </c>
+      <c r="D11">
+        <v>11.63</v>
+      </c>
+      <c r="E11">
         <v>2.4</v>
-      </c>
-      <c r="D11">
-        <v>11.73</v>
-      </c>
-      <c r="E11">
-        <v>31.61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>46026.541666666664</v>
+        <v>46029.541666666664</v>
       </c>
       <c r="B12">
-        <v>12.14</v>
+        <v>12.13</v>
       </c>
       <c r="C12">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="D12">
+        <v>11.8</v>
+      </c>
+      <c r="E12">
         <v>2.4</v>
-      </c>
-      <c r="D12">
-        <v>11.51</v>
-      </c>
-      <c r="E12">
-        <v>31.74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>46026.583333333336</v>
+        <v>46029.583333333336</v>
       </c>
       <c r="B13">
-        <v>12.01</v>
+        <v>12.2</v>
       </c>
       <c r="C13">
+        <v>32.32</v>
+      </c>
+      <c r="D13">
+        <v>11.62</v>
+      </c>
+      <c r="E13">
         <v>2.4</v>
-      </c>
-      <c r="D13">
-        <v>11.65</v>
-      </c>
-      <c r="E13">
-        <v>31.73</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>46026.625</v>
+        <v>46029.625</v>
       </c>
       <c r="B14">
-        <v>12.02</v>
+        <v>12.17</v>
       </c>
       <c r="C14">
-        <v>2.4</v>
+        <v>32.36</v>
       </c>
       <c r="D14">
-        <v>11.88</v>
+        <v>11.69</v>
       </c>
       <c r="E14">
-        <v>31.76</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>46026.666666666664</v>
+        <v>46029.666666666664</v>
       </c>
       <c r="B15">
-        <v>12.06</v>
+        <v>12.07</v>
       </c>
       <c r="C15">
-        <v>2.2999999999999998</v>
+        <v>32.33</v>
       </c>
       <c r="D15">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="E15">
-        <v>31.82</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>46026.708333333336</v>
+        <v>46029.708333333336</v>
       </c>
       <c r="B16">
-        <v>12.05</v>
+        <v>12.03</v>
       </c>
       <c r="C16">
-        <v>2.2999999999999998</v>
+        <v>32.32</v>
       </c>
       <c r="D16">
-        <v>12.32</v>
+        <v>11.87</v>
       </c>
       <c r="E16">
-        <v>31.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>46026.75</v>
+        <v>46029.75</v>
       </c>
       <c r="B17">
-        <v>12.17</v>
+        <v>12.02</v>
       </c>
       <c r="C17">
+        <v>32.35</v>
+      </c>
+      <c r="D17">
+        <v>11.85</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>46029.791666666664</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>32.32</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>46029.833333333336</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>32.340000000000003</v>
+      </c>
+      <c r="D19">
+        <v>11.85</v>
+      </c>
+      <c r="E19">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D17">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>31.72</v>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>46029.875</v>
+      </c>
+      <c r="B20">
+        <v>12.11</v>
+      </c>
+      <c r="C20">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D20">
+        <v>11.53</v>
+      </c>
+      <c r="E20">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>46029.916666666664</v>
+      </c>
+      <c r="B21">
+        <v>12.15</v>
+      </c>
+      <c r="C21">
+        <v>32.4</v>
+      </c>
+      <c r="D21">
+        <v>11.35</v>
+      </c>
+      <c r="E21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>46029.958333333336</v>
+      </c>
+      <c r="B22">
+        <v>12.14</v>
+      </c>
+      <c r="C22">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D22">
+        <v>11.35</v>
+      </c>
+      <c r="E22">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition ref="A2:A22"/>
+  </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
